--- a/biology/Zoologie/Cercocebus_lunulatus/Cercocebus_lunulatus.xlsx
+++ b/biology/Zoologie/Cercocebus_lunulatus/Cercocebus_lunulatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cercocebus lunulatus, communément appelé Mangabey couronné[4],[5],[3], Cercocèbe couronné[4] ou Cercocèbe à col blanc[4], est une espèce de Primates de la famille des Cercopithecidés, parfois considérée comme n'étant qu'une sous-espèce de Cercocèbe. On rencontre ce singe en Afrique de l'Ouest où il est en danger de disparition[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cercocebus lunulatus, communément appelé Mangabey couronné Cercocèbe couronné ou Cercocèbe à col blanc, est une espèce de Primates de la famille des Cercopithecidés, parfois considérée comme n'étant qu'une sous-espèce de Cercocèbe. On rencontre ce singe en Afrique de l'Ouest où il est en danger de disparition.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente au Burkina Faso, en Côte d'Ivoire et au Ghana. Elle vit dans la forêt primaire et secondaire ainsi que dans la mangrove[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente au Burkina Faso, en Côte d'Ivoire et au Ghana. Elle vit dans la forêt primaire et secondaire ainsi que dans la mangrove.
 </t>
         </is>
       </c>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,9 +584,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cercocèbe est parfois considéré comme une sous-espèce de Cercocebus atys[6],[7] ou de Cercocebus torquatus[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cercocèbe est parfois considéré comme une sous-espèce de Cercocebus atys, ou de Cercocebus torquatus.
 </t>
         </is>
       </c>
